--- a/downloads/Learning Destination template.xlsx
+++ b/downloads/Learning Destination template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\Kids_uni\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5AADCE-1A6F-4DD0-A4C5-42BE11BD32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A947538-4D28-4AA5-9C88-C989CA7E52B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,7 +198,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -219,6 +218,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +563,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -629,8 +631,8 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -642,18 +644,18 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -661,34 +663,2199 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+    </row>
+    <row r="75" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+    </row>
+    <row r="78" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+    </row>
+    <row r="80" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+    </row>
+    <row r="82" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+    </row>
+    <row r="83" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+    </row>
+    <row r="84" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+    </row>
+    <row r="85" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+    </row>
+    <row r="88" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+    </row>
+    <row r="89" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+    </row>
+    <row r="106" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+    </row>
+    <row r="116" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+    </row>
+    <row r="117" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+    </row>
+    <row r="118" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+    </row>
+    <row r="119" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+    </row>
+    <row r="120" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+    </row>
+    <row r="121" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+    </row>
+    <row r="122" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+    </row>
+    <row r="123" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+    </row>
+    <row r="124" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+    </row>
+    <row r="125" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+    </row>
+    <row r="126" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+    </row>
+    <row r="127" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+    </row>
+    <row r="128" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+    </row>
+    <row r="129" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+    </row>
+    <row r="130" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+    </row>
+    <row r="131" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+    </row>
+    <row r="132" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+    </row>
+    <row r="133" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+    </row>
+    <row r="134" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+    </row>
+    <row r="135" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+    </row>
+    <row r="136" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+    </row>
+    <row r="137" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+    </row>
+    <row r="138" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+    </row>
+    <row r="139" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+    </row>
+    <row r="140" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+    </row>
+    <row r="141" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+    </row>
+    <row r="142" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+    </row>
+    <row r="143" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+    </row>
+    <row r="144" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+    </row>
+    <row r="145" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+    </row>
+    <row r="146" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+    </row>
+    <row r="147" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
+    </row>
+    <row r="148" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
+    </row>
+    <row r="149" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+    </row>
+    <row r="150" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
+    </row>
+    <row r="151" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
+    </row>
+    <row r="152" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
+    </row>
+    <row r="153" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+    </row>
+    <row r="154" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
+    </row>
+    <row r="155" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+    </row>
+    <row r="156" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+    </row>
+    <row r="157" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
+    </row>
+    <row r="158" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
+    </row>
+    <row r="159" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
+    </row>
+    <row r="160" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+    </row>
+    <row r="161" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
+    </row>
+    <row r="162" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
+    </row>
+    <row r="163" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
+    </row>
+    <row r="164" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
+    </row>
+    <row r="165" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+    </row>
+    <row r="166" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
+    </row>
+    <row r="167" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
+    </row>
+    <row r="168" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N168" s="16"/>
+      <c r="O168" s="16"/>
+    </row>
+    <row r="169" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
+    </row>
+    <row r="170" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N170" s="16"/>
+      <c r="O170" s="16"/>
+    </row>
+    <row r="171" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N171" s="16"/>
+      <c r="O171" s="16"/>
+    </row>
+    <row r="172" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N172" s="16"/>
+      <c r="O172" s="16"/>
+    </row>
+    <row r="173" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
+    </row>
+    <row r="174" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+    </row>
+    <row r="175" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
+    </row>
+    <row r="176" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+    </row>
+    <row r="177" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+    </row>
+    <row r="178" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+    </row>
+    <row r="179" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
+    </row>
+    <row r="180" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N180" s="16"/>
+      <c r="O180" s="16"/>
+    </row>
+    <row r="181" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
+    </row>
+    <row r="182" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
+    </row>
+    <row r="183" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
+    </row>
+    <row r="184" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
+    </row>
+    <row r="185" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N185" s="16"/>
+      <c r="O185" s="16"/>
+    </row>
+    <row r="186" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N186" s="16"/>
+      <c r="O186" s="16"/>
+    </row>
+    <row r="187" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N187" s="16"/>
+      <c r="O187" s="16"/>
+    </row>
+    <row r="188" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N188" s="16"/>
+      <c r="O188" s="16"/>
+    </row>
+    <row r="189" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N189" s="16"/>
+      <c r="O189" s="16"/>
+    </row>
+    <row r="190" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
+    </row>
+    <row r="191" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
+    </row>
+    <row r="192" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N192" s="16"/>
+      <c r="O192" s="16"/>
+    </row>
+    <row r="193" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N193" s="16"/>
+      <c r="O193" s="16"/>
+    </row>
+    <row r="194" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N194" s="16"/>
+      <c r="O194" s="16"/>
+    </row>
+    <row r="195" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N195" s="16"/>
+      <c r="O195" s="16"/>
+    </row>
+    <row r="196" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N196" s="16"/>
+      <c r="O196" s="16"/>
+    </row>
+    <row r="197" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N197" s="16"/>
+      <c r="O197" s="16"/>
+    </row>
+    <row r="198" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N198" s="16"/>
+      <c r="O198" s="16"/>
+    </row>
+    <row r="199" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N199" s="16"/>
+      <c r="O199" s="16"/>
+    </row>
+    <row r="200" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N200" s="16"/>
+      <c r="O200" s="16"/>
+    </row>
+    <row r="201" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N201" s="16"/>
+      <c r="O201" s="16"/>
+    </row>
+    <row r="202" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N202" s="16"/>
+      <c r="O202" s="16"/>
+    </row>
+    <row r="203" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N203" s="16"/>
+      <c r="O203" s="16"/>
+    </row>
+    <row r="204" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N204" s="16"/>
+      <c r="O204" s="16"/>
+    </row>
+    <row r="205" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N205" s="16"/>
+      <c r="O205" s="16"/>
+    </row>
+    <row r="206" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N206" s="16"/>
+      <c r="O206" s="16"/>
+    </row>
+    <row r="207" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N207" s="16"/>
+      <c r="O207" s="16"/>
+    </row>
+    <row r="208" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N208" s="16"/>
+      <c r="O208" s="16"/>
+    </row>
+    <row r="209" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N209" s="16"/>
+      <c r="O209" s="16"/>
+    </row>
+    <row r="210" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N210" s="16"/>
+      <c r="O210" s="16"/>
+    </row>
+    <row r="211" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N211" s="16"/>
+      <c r="O211" s="16"/>
+    </row>
+    <row r="212" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N212" s="16"/>
+      <c r="O212" s="16"/>
+    </row>
+    <row r="213" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N213" s="16"/>
+      <c r="O213" s="16"/>
+    </row>
+    <row r="214" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N214" s="16"/>
+      <c r="O214" s="16"/>
+    </row>
+    <row r="215" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N215" s="16"/>
+      <c r="O215" s="16"/>
+    </row>
+    <row r="216" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N216" s="16"/>
+      <c r="O216" s="16"/>
+    </row>
+    <row r="217" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N217" s="16"/>
+      <c r="O217" s="16"/>
+    </row>
+    <row r="218" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N218" s="16"/>
+      <c r="O218" s="16"/>
+    </row>
+    <row r="219" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N219" s="16"/>
+      <c r="O219" s="16"/>
+    </row>
+    <row r="220" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N220" s="16"/>
+      <c r="O220" s="16"/>
+    </row>
+    <row r="221" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N221" s="16"/>
+      <c r="O221" s="16"/>
+    </row>
+    <row r="222" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N222" s="16"/>
+      <c r="O222" s="16"/>
+    </row>
+    <row r="223" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N223" s="16"/>
+      <c r="O223" s="16"/>
+    </row>
+    <row r="224" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N224" s="16"/>
+      <c r="O224" s="16"/>
+    </row>
+    <row r="225" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N225" s="16"/>
+      <c r="O225" s="16"/>
+    </row>
+    <row r="226" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N226" s="16"/>
+      <c r="O226" s="16"/>
+    </row>
+    <row r="227" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N227" s="16"/>
+      <c r="O227" s="16"/>
+    </row>
+    <row r="228" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N228" s="16"/>
+      <c r="O228" s="16"/>
+    </row>
+    <row r="229" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N229" s="16"/>
+      <c r="O229" s="16"/>
+    </row>
+    <row r="230" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N230" s="16"/>
+      <c r="O230" s="16"/>
+    </row>
+    <row r="231" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N231" s="16"/>
+      <c r="O231" s="16"/>
+    </row>
+    <row r="232" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N232" s="16"/>
+      <c r="O232" s="16"/>
+    </row>
+    <row r="233" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N233" s="16"/>
+      <c r="O233" s="16"/>
+    </row>
+    <row r="234" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N234" s="16"/>
+      <c r="O234" s="16"/>
+    </row>
+    <row r="235" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N235" s="16"/>
+      <c r="O235" s="16"/>
+    </row>
+    <row r="236" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N236" s="16"/>
+      <c r="O236" s="16"/>
+    </row>
+    <row r="237" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N237" s="16"/>
+      <c r="O237" s="16"/>
+    </row>
+    <row r="238" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N238" s="16"/>
+      <c r="O238" s="16"/>
+    </row>
+    <row r="239" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N239" s="16"/>
+      <c r="O239" s="16"/>
+    </row>
+    <row r="240" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N240" s="16"/>
+      <c r="O240" s="16"/>
+    </row>
+    <row r="241" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N241" s="16"/>
+      <c r="O241" s="16"/>
+    </row>
+    <row r="242" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N242" s="16"/>
+      <c r="O242" s="16"/>
+    </row>
+    <row r="243" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N243" s="16"/>
+      <c r="O243" s="16"/>
+    </row>
+    <row r="244" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N244" s="16"/>
+      <c r="O244" s="16"/>
+    </row>
+    <row r="245" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N245" s="16"/>
+      <c r="O245" s="16"/>
+    </row>
+    <row r="246" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N246" s="16"/>
+      <c r="O246" s="16"/>
+    </row>
+    <row r="247" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N247" s="16"/>
+      <c r="O247" s="16"/>
+    </row>
+    <row r="248" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N248" s="16"/>
+      <c r="O248" s="16"/>
+    </row>
+    <row r="249" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N249" s="16"/>
+      <c r="O249" s="16"/>
+    </row>
+    <row r="250" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N250" s="16"/>
+      <c r="O250" s="16"/>
+    </row>
+    <row r="251" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N251" s="16"/>
+      <c r="O251" s="16"/>
+    </row>
+    <row r="252" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N252" s="16"/>
+      <c r="O252" s="16"/>
+    </row>
+    <row r="253" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N253" s="16"/>
+      <c r="O253" s="16"/>
+    </row>
+    <row r="254" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N254" s="16"/>
+      <c r="O254" s="16"/>
+    </row>
+    <row r="255" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N255" s="16"/>
+      <c r="O255" s="16"/>
+    </row>
+    <row r="256" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N256" s="16"/>
+      <c r="O256" s="16"/>
+    </row>
+    <row r="257" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N257" s="16"/>
+      <c r="O257" s="16"/>
+    </row>
+    <row r="258" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N258" s="16"/>
+      <c r="O258" s="16"/>
+    </row>
+    <row r="259" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N259" s="16"/>
+      <c r="O259" s="16"/>
+    </row>
+    <row r="260" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N260" s="16"/>
+      <c r="O260" s="16"/>
+    </row>
+    <row r="261" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N261" s="16"/>
+      <c r="O261" s="16"/>
+    </row>
+    <row r="262" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N262" s="16"/>
+      <c r="O262" s="16"/>
+    </row>
+    <row r="263" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N263" s="16"/>
+      <c r="O263" s="16"/>
+    </row>
+    <row r="264" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N264" s="16"/>
+      <c r="O264" s="16"/>
+    </row>
+    <row r="265" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N265" s="16"/>
+      <c r="O265" s="16"/>
+    </row>
+    <row r="266" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N266" s="16"/>
+      <c r="O266" s="16"/>
+    </row>
+    <row r="267" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N267" s="16"/>
+      <c r="O267" s="16"/>
+    </row>
+    <row r="268" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N268" s="16"/>
+      <c r="O268" s="16"/>
+    </row>
+    <row r="269" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N269" s="16"/>
+      <c r="O269" s="16"/>
+    </row>
+    <row r="270" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N270" s="16"/>
+      <c r="O270" s="16"/>
+    </row>
+    <row r="271" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N271" s="16"/>
+      <c r="O271" s="16"/>
+    </row>
+    <row r="272" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N272" s="16"/>
+      <c r="O272" s="16"/>
+    </row>
+    <row r="273" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N273" s="16"/>
+      <c r="O273" s="16"/>
+    </row>
+    <row r="274" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N274" s="16"/>
+      <c r="O274" s="16"/>
+    </row>
+    <row r="275" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N275" s="16"/>
+      <c r="O275" s="16"/>
+    </row>
+    <row r="276" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N276" s="16"/>
+      <c r="O276" s="16"/>
+    </row>
+    <row r="277" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N277" s="16"/>
+      <c r="O277" s="16"/>
+    </row>
+    <row r="278" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N278" s="16"/>
+      <c r="O278" s="16"/>
+    </row>
+    <row r="279" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N279" s="16"/>
+      <c r="O279" s="16"/>
+    </row>
+    <row r="280" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N280" s="16"/>
+      <c r="O280" s="16"/>
+    </row>
+    <row r="281" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N281" s="16"/>
+      <c r="O281" s="16"/>
+    </row>
+    <row r="282" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N282" s="16"/>
+      <c r="O282" s="16"/>
+    </row>
+    <row r="283" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N283" s="16"/>
+      <c r="O283" s="16"/>
+    </row>
+    <row r="284" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N284" s="16"/>
+      <c r="O284" s="16"/>
+    </row>
+    <row r="285" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N285" s="16"/>
+      <c r="O285" s="16"/>
+    </row>
+    <row r="286" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N286" s="16"/>
+      <c r="O286" s="16"/>
+    </row>
+    <row r="287" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N287" s="16"/>
+      <c r="O287" s="16"/>
+    </row>
+    <row r="288" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N288" s="16"/>
+      <c r="O288" s="16"/>
+    </row>
+    <row r="289" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N289" s="16"/>
+      <c r="O289" s="16"/>
+    </row>
+    <row r="290" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N290" s="16"/>
+      <c r="O290" s="16"/>
+    </row>
+    <row r="291" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N291" s="16"/>
+      <c r="O291" s="16"/>
+    </row>
+    <row r="292" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N292" s="16"/>
+      <c r="O292" s="16"/>
+    </row>
+    <row r="293" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N293" s="16"/>
+      <c r="O293" s="16"/>
+    </row>
+    <row r="294" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N294" s="16"/>
+      <c r="O294" s="16"/>
+    </row>
+    <row r="295" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+    </row>
+    <row r="296" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+    </row>
+    <row r="297" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N297" s="16"/>
+      <c r="O297" s="16"/>
+    </row>
+    <row r="298" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N298" s="16"/>
+      <c r="O298" s="16"/>
+    </row>
+    <row r="299" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N299" s="16"/>
+      <c r="O299" s="16"/>
+    </row>
+    <row r="300" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N300" s="16"/>
+      <c r="O300" s="16"/>
+    </row>
+    <row r="301" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N301" s="16"/>
+      <c r="O301" s="16"/>
+    </row>
+    <row r="302" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N302" s="16"/>
+      <c r="O302" s="16"/>
+    </row>
+    <row r="303" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N303" s="16"/>
+      <c r="O303" s="16"/>
+    </row>
+    <row r="304" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N304" s="16"/>
+      <c r="O304" s="16"/>
+    </row>
+    <row r="305" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N305" s="16"/>
+      <c r="O305" s="16"/>
+    </row>
+    <row r="306" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N306" s="16"/>
+      <c r="O306" s="16"/>
+    </row>
+    <row r="307" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N307" s="16"/>
+      <c r="O307" s="16"/>
+    </row>
+    <row r="308" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N308" s="16"/>
+      <c r="O308" s="16"/>
+    </row>
+    <row r="309" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N309" s="16"/>
+      <c r="O309" s="16"/>
+    </row>
+    <row r="310" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N310" s="16"/>
+      <c r="O310" s="16"/>
+    </row>
+    <row r="311" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N311" s="16"/>
+      <c r="O311" s="16"/>
+    </row>
+    <row r="312" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N312" s="16"/>
+      <c r="O312" s="16"/>
+    </row>
+    <row r="313" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N313" s="16"/>
+      <c r="O313" s="16"/>
+    </row>
+    <row r="314" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N314" s="16"/>
+      <c r="O314" s="16"/>
+    </row>
+    <row r="315" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N315" s="16"/>
+      <c r="O315" s="16"/>
+    </row>
+    <row r="316" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N316" s="16"/>
+      <c r="O316" s="16"/>
+    </row>
+    <row r="317" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N317" s="16"/>
+      <c r="O317" s="16"/>
+    </row>
+    <row r="318" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N318" s="16"/>
+      <c r="O318" s="16"/>
+    </row>
+    <row r="319" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N319" s="16"/>
+      <c r="O319" s="16"/>
+    </row>
+    <row r="320" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N320" s="16"/>
+      <c r="O320" s="16"/>
+    </row>
+    <row r="321" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N321" s="16"/>
+      <c r="O321" s="16"/>
+    </row>
+    <row r="322" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N322" s="16"/>
+      <c r="O322" s="16"/>
+    </row>
+    <row r="323" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N323" s="16"/>
+      <c r="O323" s="16"/>
+    </row>
+    <row r="324" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N324" s="16"/>
+      <c r="O324" s="16"/>
+    </row>
+    <row r="325" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N325" s="16"/>
+      <c r="O325" s="16"/>
+    </row>
+    <row r="326" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N326" s="16"/>
+      <c r="O326" s="16"/>
+    </row>
+    <row r="327" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N327" s="16"/>
+      <c r="O327" s="16"/>
+    </row>
+    <row r="328" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N328" s="16"/>
+      <c r="O328" s="16"/>
+    </row>
+    <row r="329" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N329" s="16"/>
+      <c r="O329" s="16"/>
+    </row>
+    <row r="330" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N330" s="16"/>
+      <c r="O330" s="16"/>
+    </row>
+    <row r="331" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N331" s="16"/>
+      <c r="O331" s="16"/>
+    </row>
+    <row r="332" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N332" s="16"/>
+      <c r="O332" s="16"/>
+    </row>
+    <row r="333" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N333" s="16"/>
+      <c r="O333" s="16"/>
+    </row>
+    <row r="334" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N334" s="16"/>
+      <c r="O334" s="16"/>
+    </row>
+    <row r="335" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N335" s="16"/>
+      <c r="O335" s="16"/>
+    </row>
+    <row r="336" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N336" s="16"/>
+      <c r="O336" s="16"/>
+    </row>
+    <row r="337" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N337" s="16"/>
+      <c r="O337" s="16"/>
+    </row>
+    <row r="338" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N338" s="16"/>
+      <c r="O338" s="16"/>
+    </row>
+    <row r="339" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N339" s="16"/>
+      <c r="O339" s="16"/>
+    </row>
+    <row r="340" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N340" s="16"/>
+      <c r="O340" s="16"/>
+    </row>
+    <row r="341" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N341" s="16"/>
+      <c r="O341" s="16"/>
+    </row>
+    <row r="342" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N342" s="16"/>
+      <c r="O342" s="16"/>
+    </row>
+    <row r="343" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N343" s="16"/>
+      <c r="O343" s="16"/>
+    </row>
+    <row r="344" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N344" s="16"/>
+      <c r="O344" s="16"/>
+    </row>
+    <row r="345" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N345" s="16"/>
+      <c r="O345" s="16"/>
+    </row>
+    <row r="346" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N346" s="16"/>
+      <c r="O346" s="16"/>
+    </row>
+    <row r="347" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N347" s="16"/>
+      <c r="O347" s="16"/>
+    </row>
+    <row r="348" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N348" s="16"/>
+      <c r="O348" s="16"/>
+    </row>
+    <row r="349" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N349" s="16"/>
+      <c r="O349" s="16"/>
+    </row>
+    <row r="350" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N350" s="16"/>
+      <c r="O350" s="16"/>
+    </row>
+    <row r="351" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N351" s="16"/>
+      <c r="O351" s="16"/>
+    </row>
+    <row r="352" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N352" s="16"/>
+      <c r="O352" s="16"/>
+    </row>
+    <row r="353" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N353" s="16"/>
+      <c r="O353" s="16"/>
+    </row>
+    <row r="354" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N354" s="16"/>
+      <c r="O354" s="16"/>
+    </row>
+    <row r="355" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N355" s="16"/>
+      <c r="O355" s="16"/>
+    </row>
+    <row r="356" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N356" s="16"/>
+      <c r="O356" s="16"/>
+    </row>
+    <row r="357" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N357" s="16"/>
+      <c r="O357" s="16"/>
+    </row>
+    <row r="358" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N358" s="16"/>
+      <c r="O358" s="16"/>
+    </row>
+    <row r="359" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N359" s="16"/>
+      <c r="O359" s="16"/>
+    </row>
+    <row r="360" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N360" s="16"/>
+      <c r="O360" s="16"/>
+    </row>
+    <row r="361" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N361" s="16"/>
+      <c r="O361" s="16"/>
+    </row>
+    <row r="362" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N362" s="16"/>
+      <c r="O362" s="16"/>
+    </row>
+    <row r="363" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N363" s="16"/>
+      <c r="O363" s="16"/>
+    </row>
+    <row r="364" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N364" s="16"/>
+      <c r="O364" s="16"/>
+    </row>
+    <row r="365" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N365" s="16"/>
+      <c r="O365" s="16"/>
+    </row>
+    <row r="366" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N366" s="16"/>
+      <c r="O366" s="16"/>
+    </row>
+    <row r="367" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N367" s="16"/>
+      <c r="O367" s="16"/>
+    </row>
+    <row r="368" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N368" s="16"/>
+      <c r="O368" s="16"/>
+    </row>
+    <row r="369" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N369" s="16"/>
+      <c r="O369" s="16"/>
+    </row>
+    <row r="370" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N370" s="16"/>
+      <c r="O370" s="16"/>
+    </row>
+    <row r="371" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N371" s="16"/>
+      <c r="O371" s="16"/>
+    </row>
+    <row r="372" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N372" s="16"/>
+      <c r="O372" s="16"/>
+    </row>
+    <row r="373" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N373" s="16"/>
+      <c r="O373" s="16"/>
+    </row>
+    <row r="374" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N374" s="16"/>
+      <c r="O374" s="16"/>
+    </row>
+    <row r="375" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N375" s="16"/>
+      <c r="O375" s="16"/>
+    </row>
+    <row r="376" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N376" s="16"/>
+      <c r="O376" s="16"/>
+    </row>
+    <row r="377" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N377" s="16"/>
+      <c r="O377" s="16"/>
+    </row>
+    <row r="378" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N378" s="16"/>
+      <c r="O378" s="16"/>
+    </row>
+    <row r="379" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N379" s="16"/>
+      <c r="O379" s="16"/>
+    </row>
+    <row r="380" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N380" s="16"/>
+      <c r="O380" s="16"/>
+    </row>
+    <row r="381" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N381" s="16"/>
+      <c r="O381" s="16"/>
+    </row>
+    <row r="382" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N382" s="16"/>
+      <c r="O382" s="16"/>
+    </row>
+    <row r="383" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N383" s="16"/>
+      <c r="O383" s="16"/>
+    </row>
+    <row r="384" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N384" s="16"/>
+      <c r="O384" s="16"/>
+    </row>
+    <row r="385" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N385" s="16"/>
+      <c r="O385" s="16"/>
+    </row>
+    <row r="386" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N386" s="16"/>
+      <c r="O386" s="16"/>
+    </row>
+    <row r="387" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N387" s="16"/>
+      <c r="O387" s="16"/>
+    </row>
+    <row r="388" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N388" s="16"/>
+      <c r="O388" s="16"/>
+    </row>
+    <row r="389" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N389" s="16"/>
+      <c r="O389" s="16"/>
+    </row>
+    <row r="390" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N390" s="16"/>
+      <c r="O390" s="16"/>
+    </row>
+    <row r="391" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N391" s="16"/>
+      <c r="O391" s="16"/>
+    </row>
+    <row r="392" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N392" s="16"/>
+      <c r="O392" s="16"/>
+    </row>
+    <row r="393" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N393" s="16"/>
+      <c r="O393" s="16"/>
+    </row>
+    <row r="394" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N394" s="16"/>
+      <c r="O394" s="16"/>
+    </row>
+    <row r="395" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N395" s="16"/>
+      <c r="O395" s="16"/>
+    </row>
+    <row r="396" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N396" s="16"/>
+      <c r="O396" s="16"/>
+    </row>
+    <row r="397" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N397" s="16"/>
+      <c r="O397" s="16"/>
+    </row>
+    <row r="398" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N398" s="16"/>
+      <c r="O398" s="16"/>
+    </row>
+    <row r="399" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N399" s="16"/>
+      <c r="O399" s="16"/>
+    </row>
+    <row r="400" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N400" s="16"/>
+      <c r="O400" s="16"/>
+    </row>
+    <row r="401" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N401" s="16"/>
+      <c r="O401" s="16"/>
+    </row>
+    <row r="402" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N402" s="16"/>
+      <c r="O402" s="16"/>
+    </row>
+    <row r="403" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N403" s="16"/>
+      <c r="O403" s="16"/>
+    </row>
+    <row r="404" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N404" s="16"/>
+      <c r="O404" s="16"/>
+    </row>
+    <row r="405" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N405" s="16"/>
+      <c r="O405" s="16"/>
+    </row>
+    <row r="406" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N406" s="16"/>
+      <c r="O406" s="16"/>
+    </row>
+    <row r="407" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N407" s="16"/>
+      <c r="O407" s="16"/>
+    </row>
+    <row r="408" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N408" s="16"/>
+      <c r="O408" s="16"/>
+    </row>
+    <row r="409" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N409" s="16"/>
+      <c r="O409" s="16"/>
+    </row>
+    <row r="410" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N410" s="16"/>
+      <c r="O410" s="16"/>
+    </row>
+    <row r="411" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N411" s="16"/>
+      <c r="O411" s="16"/>
+    </row>
+    <row r="412" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N412" s="16"/>
+      <c r="O412" s="16"/>
+    </row>
+    <row r="413" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N413" s="16"/>
+      <c r="O413" s="16"/>
+    </row>
+    <row r="414" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N414" s="16"/>
+      <c r="O414" s="16"/>
+    </row>
+    <row r="415" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N415" s="16"/>
+      <c r="O415" s="16"/>
+    </row>
+    <row r="416" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N416" s="16"/>
+      <c r="O416" s="16"/>
+    </row>
+    <row r="417" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N417" s="16"/>
+      <c r="O417" s="16"/>
+    </row>
+    <row r="418" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N418" s="16"/>
+      <c r="O418" s="16"/>
+    </row>
+    <row r="419" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N419" s="16"/>
+      <c r="O419" s="16"/>
+    </row>
+    <row r="420" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N420" s="16"/>
+      <c r="O420" s="16"/>
+    </row>
+    <row r="421" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N421" s="16"/>
+      <c r="O421" s="16"/>
+    </row>
+    <row r="422" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N422" s="16"/>
+      <c r="O422" s="16"/>
+    </row>
+    <row r="423" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N423" s="16"/>
+      <c r="O423" s="16"/>
+    </row>
+    <row r="424" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N424" s="16"/>
+      <c r="O424" s="16"/>
+    </row>
+    <row r="425" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N425" s="16"/>
+      <c r="O425" s="16"/>
+    </row>
+    <row r="426" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N426" s="16"/>
+      <c r="O426" s="16"/>
+    </row>
+    <row r="427" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N427" s="16"/>
+      <c r="O427" s="16"/>
+    </row>
+    <row r="428" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N428" s="16"/>
+      <c r="O428" s="16"/>
+    </row>
+    <row r="429" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N429" s="16"/>
+      <c r="O429" s="16"/>
+    </row>
+    <row r="430" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N430" s="16"/>
+      <c r="O430" s="16"/>
+    </row>
+    <row r="431" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N431" s="16"/>
+      <c r="O431" s="16"/>
+    </row>
+    <row r="432" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N432" s="16"/>
+      <c r="O432" s="16"/>
+    </row>
+    <row r="433" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N433" s="16"/>
+      <c r="O433" s="16"/>
+    </row>
+    <row r="434" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N434" s="16"/>
+      <c r="O434" s="16"/>
+    </row>
+    <row r="435" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N435" s="16"/>
+      <c r="O435" s="16"/>
+    </row>
+    <row r="436" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N436" s="16"/>
+      <c r="O436" s="16"/>
+    </row>
+    <row r="437" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N437" s="16"/>
+      <c r="O437" s="16"/>
+    </row>
+    <row r="438" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N438" s="16"/>
+      <c r="O438" s="16"/>
+    </row>
+    <row r="439" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N439" s="16"/>
+      <c r="O439" s="16"/>
+    </row>
+    <row r="440" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N440" s="16"/>
+      <c r="O440" s="16"/>
+    </row>
+    <row r="441" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N441" s="16"/>
+      <c r="O441" s="16"/>
+    </row>
+    <row r="442" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N442" s="16"/>
+      <c r="O442" s="16"/>
+    </row>
+    <row r="443" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N443" s="16"/>
+      <c r="O443" s="16"/>
+    </row>
+    <row r="444" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N444" s="16"/>
+      <c r="O444" s="16"/>
+    </row>
+    <row r="445" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N445" s="16"/>
+      <c r="O445" s="16"/>
+    </row>
+    <row r="446" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N446" s="16"/>
+      <c r="O446" s="16"/>
+    </row>
+    <row r="447" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N447" s="16"/>
+      <c r="O447" s="16"/>
+    </row>
+    <row r="448" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N448" s="16"/>
+      <c r="O448" s="16"/>
+    </row>
+    <row r="449" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N449" s="16"/>
+      <c r="O449" s="16"/>
+    </row>
+    <row r="450" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N450" s="16"/>
+      <c r="O450" s="16"/>
+    </row>
+    <row r="451" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N451" s="16"/>
+      <c r="O451" s="16"/>
+    </row>
+    <row r="452" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N452" s="16"/>
+      <c r="O452" s="16"/>
+    </row>
+    <row r="453" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N453" s="16"/>
+      <c r="O453" s="16"/>
+    </row>
+    <row r="454" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N454" s="16"/>
+      <c r="O454" s="16"/>
+    </row>
+    <row r="455" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N455" s="16"/>
+      <c r="O455" s="16"/>
+    </row>
+    <row r="456" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N456" s="16"/>
+      <c r="O456" s="16"/>
+    </row>
+    <row r="457" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N457" s="16"/>
+      <c r="O457" s="16"/>
+    </row>
+    <row r="458" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N458" s="16"/>
+      <c r="O458" s="16"/>
+    </row>
+    <row r="459" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N459" s="16"/>
+      <c r="O459" s="16"/>
+    </row>
+    <row r="460" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N460" s="16"/>
+      <c r="O460" s="16"/>
+    </row>
+    <row r="461" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N461" s="16"/>
+      <c r="O461" s="16"/>
+    </row>
+    <row r="462" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N462" s="16"/>
+      <c r="O462" s="16"/>
+    </row>
+    <row r="463" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N463" s="16"/>
+      <c r="O463" s="16"/>
+    </row>
+    <row r="464" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N464" s="16"/>
+      <c r="O464" s="16"/>
+    </row>
+    <row r="465" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N465" s="16"/>
+      <c r="O465" s="16"/>
+    </row>
+    <row r="466" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N466" s="16"/>
+      <c r="O466" s="16"/>
+    </row>
+    <row r="467" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N467" s="16"/>
+      <c r="O467" s="16"/>
+    </row>
+    <row r="468" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N468" s="16"/>
+      <c r="O468" s="16"/>
+    </row>
+    <row r="469" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N469" s="16"/>
+      <c r="O469" s="16"/>
+    </row>
+    <row r="470" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N470" s="16"/>
+      <c r="O470" s="16"/>
+    </row>
+    <row r="471" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N471" s="16"/>
+      <c r="O471" s="16"/>
+    </row>
+    <row r="472" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N472" s="16"/>
+      <c r="O472" s="16"/>
+    </row>
+    <row r="473" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N473" s="16"/>
+      <c r="O473" s="16"/>
+    </row>
+    <row r="474" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N474" s="16"/>
+      <c r="O474" s="16"/>
+    </row>
+    <row r="475" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N475" s="16"/>
+      <c r="O475" s="16"/>
+    </row>
+    <row r="476" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N476" s="16"/>
+      <c r="O476" s="16"/>
+    </row>
+    <row r="477" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N477" s="16"/>
+      <c r="O477" s="16"/>
+    </row>
+    <row r="478" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N478" s="16"/>
+      <c r="O478" s="16"/>
+    </row>
+    <row r="479" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N479" s="16"/>
+      <c r="O479" s="16"/>
+    </row>
+    <row r="480" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N480" s="16"/>
+      <c r="O480" s="16"/>
+    </row>
+    <row r="481" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N481" s="16"/>
+      <c r="O481" s="16"/>
+    </row>
+    <row r="482" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N482" s="16"/>
+      <c r="O482" s="16"/>
+    </row>
+    <row r="483" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N483" s="16"/>
+      <c r="O483" s="16"/>
+    </row>
+    <row r="484" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N484" s="16"/>
+      <c r="O484" s="16"/>
+    </row>
+    <row r="485" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N485" s="16"/>
+      <c r="O485" s="16"/>
+    </row>
+    <row r="486" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N486" s="16"/>
+      <c r="O486" s="16"/>
+    </row>
+    <row r="487" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N487" s="16"/>
+      <c r="O487" s="16"/>
+    </row>
+    <row r="488" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N488" s="16"/>
+      <c r="O488" s="16"/>
+    </row>
+    <row r="489" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N489" s="16"/>
+      <c r="O489" s="16"/>
+    </row>
+    <row r="490" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N490" s="16"/>
+      <c r="O490" s="16"/>
+    </row>
+    <row r="491" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N491" s="16"/>
+      <c r="O491" s="16"/>
+    </row>
+    <row r="492" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N492" s="16"/>
+      <c r="O492" s="16"/>
+    </row>
+    <row r="493" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N493" s="16"/>
+      <c r="O493" s="16"/>
+    </row>
+    <row r="494" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N494" s="16"/>
+      <c r="O494" s="16"/>
+    </row>
+    <row r="495" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N495" s="16"/>
+      <c r="O495" s="16"/>
+    </row>
+    <row r="496" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N496" s="16"/>
+      <c r="O496" s="16"/>
+    </row>
+    <row r="497" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N497" s="16"/>
+      <c r="O497" s="16"/>
+    </row>
+    <row r="498" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N498" s="16"/>
+      <c r="O498" s="16"/>
+    </row>
+    <row r="499" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N499" s="16"/>
+      <c r="O499" s="16"/>
+    </row>
+    <row r="500" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N500" s="16"/>
+      <c r="O500" s="16"/>
+    </row>
+    <row r="501" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N501" s="16"/>
+      <c r="O501" s="16"/>
+    </row>
+    <row r="502" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N502" s="16"/>
+      <c r="O502" s="16"/>
+    </row>
+    <row r="503" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N503" s="16"/>
+      <c r="O503" s="16"/>
+    </row>
+    <row r="504" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N504" s="16"/>
+      <c r="O504" s="16"/>
+    </row>
+    <row r="505" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N505" s="16"/>
+      <c r="O505" s="16"/>
+    </row>
+    <row r="506" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N506" s="16"/>
+      <c r="O506" s="16"/>
+    </row>
+    <row r="507" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N507" s="16"/>
+      <c r="O507" s="16"/>
+    </row>
+    <row r="508" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N508" s="16"/>
+      <c r="O508" s="16"/>
+    </row>
+    <row r="509" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N509" s="16"/>
+      <c r="O509" s="16"/>
+    </row>
+    <row r="510" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N510" s="16"/>
+      <c r="O510" s="16"/>
+    </row>
+    <row r="511" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N511" s="16"/>
+      <c r="O511" s="16"/>
+    </row>
+    <row r="512" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N512" s="16"/>
+      <c r="O512" s="16"/>
+    </row>
+    <row r="513" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N513" s="16"/>
+      <c r="O513" s="16"/>
+    </row>
+    <row r="514" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N514" s="16"/>
+      <c r="O514" s="16"/>
+    </row>
+    <row r="515" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N515" s="16"/>
+      <c r="O515" s="16"/>
+    </row>
+    <row r="516" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N516" s="16"/>
+      <c r="O516" s="16"/>
+    </row>
+    <row r="517" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N517" s="16"/>
+      <c r="O517" s="16"/>
+    </row>
+    <row r="518" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N518" s="16"/>
+      <c r="O518" s="16"/>
+    </row>
+    <row r="519" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N519" s="16"/>
+      <c r="O519" s="16"/>
+    </row>
+    <row r="520" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N520" s="16"/>
+      <c r="O520" s="16"/>
+    </row>
+    <row r="521" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N521" s="16"/>
+      <c r="O521" s="16"/>
+    </row>
+    <row r="522" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N522" s="16"/>
+      <c r="O522" s="16"/>
+    </row>
+    <row r="523" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N523" s="16"/>
+      <c r="O523" s="16"/>
+    </row>
+    <row r="524" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N524" s="16"/>
+      <c r="O524" s="16"/>
+    </row>
+    <row r="525" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N525" s="16"/>
+      <c r="O525" s="16"/>
+    </row>
+    <row r="526" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N526" s="16"/>
+      <c r="O526" s="16"/>
+    </row>
+    <row r="527" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N527" s="16"/>
+      <c r="O527" s="16"/>
+    </row>
+    <row r="528" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N528" s="16"/>
+      <c r="O528" s="16"/>
+    </row>
+    <row r="529" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N529" s="16"/>
+      <c r="O529" s="16"/>
+    </row>
+    <row r="530" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N530" s="16"/>
+      <c r="O530" s="16"/>
+    </row>
+    <row r="531" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N531" s="16"/>
+      <c r="O531" s="16"/>
+    </row>
+    <row r="532" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N532" s="16"/>
+      <c r="O532" s="16"/>
+    </row>
+    <row r="533" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N533" s="16"/>
+      <c r="O533" s="16"/>
+    </row>
+    <row r="534" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N534" s="16"/>
+      <c r="O534" s="16"/>
+    </row>
+    <row r="535" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N535" s="16"/>
+      <c r="O535" s="16"/>
+    </row>
+    <row r="536" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N536" s="16"/>
+      <c r="O536" s="16"/>
+    </row>
+    <row r="537" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N537" s="16"/>
+      <c r="O537" s="16"/>
+    </row>
+    <row r="538" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N538" s="16"/>
+      <c r="O538" s="16"/>
+    </row>
+    <row r="539" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N539" s="16"/>
+      <c r="O539" s="16"/>
+    </row>
+    <row r="540" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N540" s="16"/>
+      <c r="O540" s="16"/>
+    </row>
+    <row r="541" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N541" s="14"/>
+      <c r="O541" s="14"/>
+    </row>
+    <row r="542" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N542" s="14"/>
+    </row>
+    <row r="543" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N543" s="14"/>
+    </row>
+    <row r="544" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N544" s="14"/>
+    </row>
+    <row r="545" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N545" s="14"/>
+    </row>
+    <row r="546" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N546" s="14"/>
+    </row>
+    <row r="547" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N547" s="14"/>
+    </row>
+    <row r="548" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N548" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,15 +2864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
     <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
@@ -883,6 +3041,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -890,14 +3057,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1ECE128-4AFA-4D9A-A791-7A9B74B8B681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -915,6 +3074,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
   <ds:schemaRefs>
